--- a/Input/GIG/userType.xlsx
+++ b/Input/GIG/userType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t xml:space="preserve">benefits</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Claims Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
@@ -52,12 +58,39 @@
     <t xml:space="preserve">Starter</t>
   </si>
   <si>
+    <t xml:space="preserve">Diagnostics &amp; Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgeries &amp; Anesthesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organ Transplant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
+    <t xml:space="preserve">Out-patient Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
+  </si>
+  <si>
     <t xml:space="preserve">Physiotherapy</t>
   </si>
   <si>
@@ -73,9 +106,6 @@
     <t xml:space="preserve">Complications of Pregnancy</t>
   </si>
   <si>
-    <t xml:space="preserve">Pro</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Born Cover</t>
   </si>
   <si>
@@ -97,7 +127,31 @@
     <t xml:space="preserve">Wellness &amp; Health Screening</t>
   </si>
   <si>
+    <t xml:space="preserve">Alternative Medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Health Benefit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emergency Evacuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual / Tele Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Web Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
   </si>
 </sst>
 </file>
@@ -204,10 +258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,7 +278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -232,7 +286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -240,57 +294,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -298,53 +352,53 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -352,7 +406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -360,12 +414,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,23 +427,159 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
